--- a/nodes_source_analyses/buildings/buildings_lighting_efficient_fluorescent_electricity.converter.xlsx
+++ b/nodes_source_analyses/buildings/buildings_lighting_efficient_fluorescent_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="220" windowWidth="23260" windowHeight="15020" tabRatio="762"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="23260" windowHeight="15020" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -284,9 +292,6 @@
   </si>
   <si>
     <t>Maria Tsagkaraki</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -417,14 +422,37 @@
   <si>
     <t>http://refman.et-model.com/publications/1894</t>
   </si>
+  <si>
+    <r>
+      <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> rake import:node NODE="nodename" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">the button to update the node attributes on ETSource. 
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -554,11 +582,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -577,6 +600,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1156,7 +1185,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1177,7 +1206,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1216,14 +1245,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1234,15 +1263,15 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1275,31 +1304,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="227" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,80 +1574,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>850900</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>127000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2014,7 +1978,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2451,34 +2415,34 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.5" style="48" customWidth="1"/>
-    <col min="3" max="3" width="47.5" style="48" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="48"/>
+    <col min="1" max="1" width="3.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="48" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="45" customFormat="1">
+    <row r="1" spans="1:3" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43"/>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="47"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="46"/>
       <c r="B4" s="50" t="s">
         <v>12</v>
@@ -2487,7 +2451,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="52" t="s">
         <v>79</v>
@@ -2496,7 +2460,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="46"/>
       <c r="B6" s="54" t="s">
         <v>14</v>
@@ -2505,29 +2469,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="69" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="70"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="71"/>
       <c r="C10" s="72"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="71" t="s">
         <v>65</v>
@@ -2536,33 +2500,33 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="71"/>
       <c r="C12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="71"/>
       <c r="C13" s="74" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="71"/>
       <c r="C14" s="72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="71"/>
       <c r="C15" s="72"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="71" t="s">
         <v>70</v>
@@ -2571,49 +2535,49 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="71"/>
       <c r="C17" s="76" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="71"/>
       <c r="C18" s="77" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
       <c r="B19" s="71"/>
       <c r="C19" s="78" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="79"/>
       <c r="C20" s="80" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="79"/>
       <c r="C21" s="81" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="79"/>
       <c r="C22" s="82" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="79"/>
       <c r="C23" s="83" t="s">
@@ -2623,49 +2587,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="20" customWidth="1"/>
     <col min="6" max="6" width="4" style="20" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="20" customWidth="1"/>
-    <col min="8" max="8" width="3.375" style="20" customWidth="1"/>
-    <col min="9" max="9" width="41.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="3.5" style="20" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="20"/>
+    <col min="7" max="7" width="26.28515625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" style="20" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="111" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C2" s="112"/>
       <c r="D2" s="112"/>
@@ -2673,7 +2632,7 @@
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="114"/>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
@@ -2681,7 +2640,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="114"/>
       <c r="C4" s="115"/>
       <c r="D4" s="115"/>
@@ -2689,7 +2648,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="117"/>
       <c r="C5" s="118"/>
       <c r="D5" s="118"/>
@@ -2697,10 +2656,10 @@
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="18"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2711,7 +2670,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="2:11" s="13" customFormat="1">
+    <row r="8" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
         <v>22</v>
@@ -2732,7 +2691,7 @@
       </c>
       <c r="J8" s="14"/>
     </row>
-    <row r="9" spans="2:11" s="13" customFormat="1">
+    <row r="9" spans="2:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
@@ -2743,10 +2702,10 @@
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -2757,13 +2716,13 @@
       <c r="J10" s="26"/>
       <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="57" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="85">
         <f>'Research data'!H7</f>
@@ -2780,7 +2739,7 @@
       <c r="J11" s="26"/>
       <c r="K11" s="18"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
       <c r="C12" s="86"/>
       <c r="D12" s="87"/>
@@ -2792,10 +2751,10 @@
       <c r="J12" s="26"/>
       <c r="K12" s="18"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="87"/>
       <c r="E13" s="88"/>
@@ -2806,7 +2765,7 @@
       <c r="J13" s="26"/>
       <c r="K13" s="18"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="57" t="s">
         <v>7</v>
@@ -2829,7 +2788,7 @@
       <c r="J14" s="26"/>
       <c r="K14" s="18"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
       <c r="C15" s="57" t="s">
         <v>59</v>
@@ -2852,7 +2811,7 @@
       <c r="J15" s="26"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
       <c r="D16" s="87"/>
@@ -2864,7 +2823,7 @@
       <c r="J16" s="26"/>
       <c r="K16" s="18"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24"/>
       <c r="C17" s="17" t="s">
         <v>4</v>
@@ -2878,7 +2837,7 @@
       <c r="J17" s="26"/>
       <c r="K17" s="18"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24"/>
       <c r="C18" s="57" t="s">
         <v>57</v>
@@ -2901,7 +2860,7 @@
       <c r="J18" s="26"/>
       <c r="K18" s="18"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
       <c r="C19" s="89" t="s">
         <v>56</v>
@@ -2921,7 +2880,7 @@
       <c r="J19" s="26"/>
       <c r="K19" s="18"/>
     </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="38"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
@@ -2938,43 +2897,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>76200</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>8</xdr:col>
-                    <xdr:colOff>850900</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>127000</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2989,33 +2911,33 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="2.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="32.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="20" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="2.875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="9.25" style="20" customWidth="1"/>
-    <col min="9" max="9" width="3.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="20" customWidth="1"/>
-    <col min="11" max="11" width="3.5" style="20" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="20" customWidth="1"/>
-    <col min="13" max="13" width="3.375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="20" customWidth="1"/>
-    <col min="15" max="15" width="3.375" style="20" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="20" customWidth="1"/>
-    <col min="17" max="17" width="3.125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="20" customWidth="1"/>
-    <col min="20" max="20" width="31.125" style="20" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="20"/>
+    <col min="1" max="1" width="4.28515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="2.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="20" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="20" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="20" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="20" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="20" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="20" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" style="20" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" style="20" customWidth="1"/>
+    <col min="20" max="20" width="31.140625" style="20" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="16" thickBot="1"/>
-    <row r="3" spans="2:20">
+    <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -3036,10 +2958,10 @@
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
     </row>
-    <row r="4" spans="2:20" s="13" customFormat="1">
+    <row r="4" spans="2:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3075,7 +2997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -3096,10 +3018,10 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -3119,7 +3041,7 @@
       <c r="S6" s="18"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" spans="2:20" ht="16" thickBot="1">
+    <row r="7" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="31" t="s">
         <v>18</v>
@@ -3127,7 +3049,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="68">
@@ -3159,7 +3081,7 @@
       <c r="S7" s="18"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" spans="2:20" ht="16" thickBot="1">
+    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="32" t="s">
         <v>34</v>
@@ -3167,7 +3089,7 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
       <c r="F8" s="90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="42">
@@ -3195,7 +3117,7 @@
       <c r="S8" s="18"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -3216,7 +3138,7 @@
       <c r="S9" s="18"/>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1">
+    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="24"/>
       <c r="C10" s="17" t="s">
         <v>4</v>
@@ -3239,7 +3161,7 @@
       <c r="S10" s="18"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
+    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="27" t="s">
         <v>32</v>
@@ -3281,7 +3203,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="24"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -3302,10 +3224,10 @@
       <c r="S12" s="18"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" spans="2:20" ht="16" thickBot="1">
+    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="24"/>
       <c r="C13" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -3325,7 +3247,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="32"/>
     </row>
-    <row r="14" spans="2:20" ht="16" thickBot="1">
+    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="24"/>
       <c r="C14" s="27" t="s">
         <v>38</v>
@@ -3333,7 +3255,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="41">
@@ -3367,7 +3289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:20" ht="16" thickBot="1">
+    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24"/>
       <c r="C15" s="34" t="s">
         <v>5</v>
@@ -3400,7 +3322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
@@ -3426,11 +3348,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3445,22 +3362,22 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="95" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="95" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="95" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="95" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="95" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="96" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="96" customWidth="1"/>
-    <col min="9" max="9" width="36.375" style="96" customWidth="1"/>
-    <col min="10" max="10" width="53.25" style="95" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="95"/>
+    <col min="2" max="2" width="3.42578125" style="95" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="95" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="95" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="95" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="96" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="96" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" style="96" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" style="95" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -3471,7 +3388,7 @@
       <c r="I2" s="99"/>
       <c r="J2" s="98"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="100"/>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -3484,14 +3401,14 @@
       <c r="I3" s="8"/>
       <c r="J3" s="101"/>
     </row>
-    <row r="4" spans="2:10" s="101" customFormat="1">
+    <row r="4" spans="2:10" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="100"/>
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="103"/>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -3506,19 +3423,19 @@
         <v>20</v>
       </c>
       <c r="G5" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="91" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="100"/>
       <c r="C6" s="3"/>
       <c r="D6" s="101"/>
@@ -3529,7 +3446,7 @@
       <c r="I6" s="8"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="100"/>
       <c r="C7" s="104"/>
       <c r="D7" s="95" t="s">
@@ -3546,7 +3463,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="100"/>
       <c r="C8" s="106" t="s">
         <v>36</v>
@@ -3554,7 +3471,7 @@
       <c r="H8" s="95"/>
       <c r="I8" s="95"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="100"/>
       <c r="C9" s="107" t="s">
         <v>18</v>
@@ -3562,19 +3479,19 @@
       <c r="H9" s="95"/>
       <c r="I9" s="95"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="100"/>
       <c r="C10" s="101"/>
       <c r="H10" s="95"/>
       <c r="I10" s="95"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="100"/>
       <c r="C11" s="101"/>
       <c r="H11" s="95"/>
       <c r="I11" s="95"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="100"/>
       <c r="C12" s="106" t="s">
         <v>36</v>
@@ -3593,13 +3510,13 @@
       </c>
       <c r="H12" s="95"/>
       <c r="I12" s="65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="100"/>
       <c r="C13" s="107" t="s">
         <v>18</v>
@@ -3607,19 +3524,19 @@
       <c r="H13" s="95"/>
       <c r="I13" s="95"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="100"/>
       <c r="C14" s="104"/>
       <c r="H14" s="95"/>
       <c r="I14" s="95"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="100"/>
       <c r="C15" s="104"/>
       <c r="H15" s="95"/>
       <c r="I15" s="95"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="100"/>
       <c r="C16" s="106" t="s">
         <v>36</v>
@@ -3638,13 +3555,13 @@
       </c>
       <c r="H16" s="95"/>
       <c r="I16" s="65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="105" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="100"/>
       <c r="C17" s="107" t="s">
         <v>18</v>
@@ -3652,19 +3569,19 @@
       <c r="H17" s="95"/>
       <c r="I17" s="95"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="100"/>
       <c r="C18" s="104"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="100"/>
       <c r="C19" s="104"/>
       <c r="H19" s="95"/>
       <c r="I19" s="95"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="100"/>
       <c r="C20" s="106" t="s">
         <v>36</v>
@@ -3683,13 +3600,13 @@
       </c>
       <c r="H20" s="95"/>
       <c r="I20" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J20" s="105" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="100"/>
       <c r="C21" s="107" t="s">
         <v>18</v>
@@ -3697,19 +3614,19 @@
       <c r="H21" s="95"/>
       <c r="I21" s="95"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="100"/>
       <c r="C22" s="101"/>
       <c r="H22" s="95"/>
       <c r="I22" s="95"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="100"/>
       <c r="C23" s="104"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="100"/>
       <c r="C24" s="108" t="s">
         <v>37</v>
@@ -3730,7 +3647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="100"/>
       <c r="C25" s="108"/>
       <c r="D25" s="104"/>
@@ -3741,7 +3658,7 @@
       <c r="I25" s="101"/>
       <c r="J25" s="101"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="100"/>
       <c r="C26" s="104"/>
       <c r="D26" s="104"/>
@@ -3752,7 +3669,7 @@
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="100"/>
       <c r="C27" s="108" t="s">
         <v>39</v>
@@ -3771,7 +3688,7 @@
       </c>
       <c r="H27" s="101"/>
       <c r="I27" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J27" s="109" t="s">
         <v>53</v>
@@ -3789,11 +3706,6 @@
   <ignoredErrors>
     <ignoredError sqref="F12:G12 F16:G16 F27:G27 F20:G20" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3808,17 +3720,17 @@
       <selection activeCell="M24" sqref="M22:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="59" customWidth="1"/>
-    <col min="2" max="2" width="4.625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="59"/>
-    <col min="4" max="4" width="26.625" style="59" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="59"/>
+    <col min="1" max="1" width="3.28515625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="59" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="59"/>
+    <col min="4" max="4" width="26.5703125" style="59" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="60"/>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -3831,7 +3743,7 @@
       <c r="K2" s="61"/>
       <c r="L2" s="62"/>
     </row>
-    <row r="3" spans="2:12" s="13" customFormat="1">
+    <row r="3" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="67"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -3848,7 +3760,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="2:12" s="13" customFormat="1">
+    <row r="4" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -3861,7 +3773,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="63"/>
       <c r="C5" s="58" t="s">
         <v>42</v>
@@ -3876,7 +3788,7 @@
       <c r="K5" s="58"/>
       <c r="L5" s="64"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="63"/>
       <c r="C6" s="58"/>
       <c r="D6" s="58" t="s">
@@ -3891,7 +3803,7 @@
       <c r="K6" s="58"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="63"/>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3904,7 +3816,7 @@
       <c r="K7" s="58"/>
       <c r="L7" s="64"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
@@ -3917,7 +3829,7 @@
       <c r="K8" s="58"/>
       <c r="L8" s="64"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
       <c r="C9" s="58"/>
       <c r="D9" s="58"/>
@@ -3930,7 +3842,7 @@
       <c r="K9" s="58"/>
       <c r="L9" s="64"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="63"/>
       <c r="C10" s="58"/>
       <c r="D10" s="58"/>
@@ -3943,7 +3855,7 @@
       <c r="K10" s="58"/>
       <c r="L10" s="64"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="63"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -3956,7 +3868,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="64"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="63"/>
       <c r="C12" s="58"/>
       <c r="D12" s="58"/>
@@ -3969,7 +3881,7 @@
       <c r="K12" s="58"/>
       <c r="L12" s="64"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="63"/>
       <c r="C13" s="58"/>
       <c r="D13" s="58"/>
@@ -3982,7 +3894,7 @@
       <c r="K13" s="58"/>
       <c r="L13" s="64"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="63"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
@@ -3995,7 +3907,7 @@
       <c r="K14" s="58"/>
       <c r="L14" s="64"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="63"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
@@ -4008,7 +3920,7 @@
       <c r="K15" s="58"/>
       <c r="L15" s="64"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
       <c r="C16" s="58"/>
       <c r="D16" s="58"/>
@@ -4021,7 +3933,7 @@
       <c r="K16" s="58"/>
       <c r="L16" s="64"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="63"/>
       <c r="C17" s="58"/>
       <c r="D17" s="58">
@@ -4036,7 +3948,7 @@
       <c r="K17" s="58"/>
       <c r="L17" s="64"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="63"/>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
@@ -4049,7 +3961,7 @@
       <c r="K18" s="58"/>
       <c r="L18" s="64"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="63"/>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -4062,7 +3974,7 @@
       <c r="K19" s="58"/>
       <c r="L19" s="64"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="63"/>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -4075,7 +3987,7 @@
       <c r="K20" s="58"/>
       <c r="L20" s="64"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="63"/>
       <c r="C21" s="58"/>
       <c r="D21" s="58" t="s">
@@ -4090,7 +4002,7 @@
       <c r="K21" s="58"/>
       <c r="L21" s="64"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="63"/>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
@@ -4103,7 +4015,7 @@
       <c r="K22" s="58"/>
       <c r="L22" s="64"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="63"/>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -4116,7 +4028,7 @@
       <c r="K23" s="58"/>
       <c r="L23" s="64"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="63"/>
       <c r="C24" s="58"/>
       <c r="D24" s="58"/>
@@ -4129,7 +4041,7 @@
       <c r="K24" s="58"/>
       <c r="L24" s="64"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="63"/>
       <c r="C25" s="58"/>
       <c r="D25" s="58"/>
@@ -4142,7 +4054,7 @@
       <c r="K25" s="58"/>
       <c r="L25" s="64"/>
     </row>
-    <row r="26" spans="2:12">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="63"/>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -4155,7 +4067,7 @@
       <c r="K26" s="58"/>
       <c r="L26" s="64"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="63"/>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -4168,7 +4080,7 @@
       <c r="K27" s="58"/>
       <c r="L27" s="64"/>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="63"/>
       <c r="C28" s="58"/>
       <c r="D28" s="58"/>
@@ -4181,7 +4093,7 @@
       <c r="K28" s="58"/>
       <c r="L28" s="64"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="63"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -4194,7 +4106,7 @@
       <c r="K29" s="58"/>
       <c r="L29" s="64"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="63"/>
       <c r="C30" s="58"/>
       <c r="D30" s="58">
@@ -4209,7 +4121,7 @@
       <c r="K30" s="58"/>
       <c r="L30" s="64"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="63"/>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -4222,7 +4134,7 @@
       <c r="K31" s="58"/>
       <c r="L31" s="64"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="63"/>
       <c r="C32" s="58"/>
       <c r="D32" s="58"/>
@@ -4235,7 +4147,7 @@
       <c r="K32" s="58"/>
       <c r="L32" s="64"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="63"/>
       <c r="C33" s="58"/>
       <c r="D33" s="58" t="s">
@@ -4250,7 +4162,7 @@
       <c r="K33" s="58"/>
       <c r="L33" s="64"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="63"/>
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
@@ -4263,7 +4175,7 @@
       <c r="K34" s="58"/>
       <c r="L34" s="64"/>
     </row>
-    <row r="35" spans="2:12">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="63"/>
       <c r="C35" s="58"/>
       <c r="D35" s="58"/>
@@ -4276,7 +4188,7 @@
       <c r="K35" s="58"/>
       <c r="L35" s="64"/>
     </row>
-    <row r="36" spans="2:12">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="63"/>
       <c r="C36" s="58"/>
       <c r="D36" s="58"/>
@@ -4289,7 +4201,7 @@
       <c r="K36" s="58"/>
       <c r="L36" s="64"/>
     </row>
-    <row r="37" spans="2:12">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="63"/>
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
@@ -4302,7 +4214,7 @@
       <c r="K37" s="58"/>
       <c r="L37" s="64"/>
     </row>
-    <row r="38" spans="2:12">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="63"/>
       <c r="C38" s="58"/>
       <c r="D38" s="58"/>
@@ -4315,7 +4227,7 @@
       <c r="K38" s="58"/>
       <c r="L38" s="64"/>
     </row>
-    <row r="39" spans="2:12">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="63"/>
       <c r="C39" s="58"/>
       <c r="D39" s="58"/>
@@ -4328,7 +4240,7 @@
       <c r="K39" s="58"/>
       <c r="L39" s="64"/>
     </row>
-    <row r="40" spans="2:12">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="63"/>
       <c r="C40" s="58"/>
       <c r="D40" s="58"/>
@@ -4341,7 +4253,7 @@
       <c r="K40" s="58"/>
       <c r="L40" s="64"/>
     </row>
-    <row r="41" spans="2:12">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="63"/>
       <c r="C41" s="58"/>
       <c r="D41" s="58"/>
@@ -4354,7 +4266,7 @@
       <c r="K41" s="58"/>
       <c r="L41" s="64"/>
     </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="63"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
@@ -4367,7 +4279,7 @@
       <c r="K42" s="58"/>
       <c r="L42" s="64"/>
     </row>
-    <row r="43" spans="2:12">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="63"/>
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
@@ -4380,7 +4292,7 @@
       <c r="K43" s="58"/>
       <c r="L43" s="64"/>
     </row>
-    <row r="44" spans="2:12">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="63"/>
       <c r="C44" s="58"/>
       <c r="D44" s="58">
@@ -4395,7 +4307,7 @@
       <c r="K44" s="58"/>
       <c r="L44" s="64"/>
     </row>
-    <row r="45" spans="2:12">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="63"/>
       <c r="C45" s="58"/>
       <c r="D45" s="58"/>
@@ -4408,7 +4320,7 @@
       <c r="K45" s="58"/>
       <c r="L45" s="64"/>
     </row>
-    <row r="46" spans="2:12">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="63"/>
       <c r="C46" s="58"/>
       <c r="D46" s="58"/>
@@ -4421,7 +4333,7 @@
       <c r="K46" s="58"/>
       <c r="L46" s="64"/>
     </row>
-    <row r="47" spans="2:12">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="63"/>
       <c r="C47" s="58"/>
       <c r="D47" s="58"/>
@@ -4434,7 +4346,7 @@
       <c r="K47" s="58"/>
       <c r="L47" s="64"/>
     </row>
-    <row r="48" spans="2:12">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="63"/>
       <c r="C48" s="58"/>
       <c r="D48" s="58"/>
@@ -4447,7 +4359,7 @@
       <c r="K48" s="58"/>
       <c r="L48" s="64"/>
     </row>
-    <row r="49" spans="2:12">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="63"/>
       <c r="C49" s="58"/>
       <c r="D49" s="58" t="s">
@@ -4462,7 +4374,7 @@
       <c r="K49" s="58"/>
       <c r="L49" s="64"/>
     </row>
-    <row r="50" spans="2:12">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="63"/>
       <c r="C50" s="58"/>
       <c r="D50" s="58"/>
@@ -4475,7 +4387,7 @@
       <c r="K50" s="58"/>
       <c r="L50" s="64"/>
     </row>
-    <row r="51" spans="2:12">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="63"/>
       <c r="C51" s="58"/>
       <c r="D51" s="58"/>
@@ -4488,7 +4400,7 @@
       <c r="K51" s="58"/>
       <c r="L51" s="64"/>
     </row>
-    <row r="52" spans="2:12">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="63"/>
       <c r="C52" s="58"/>
       <c r="D52" s="58"/>
@@ -4501,7 +4413,7 @@
       <c r="K52" s="58"/>
       <c r="L52" s="64"/>
     </row>
-    <row r="53" spans="2:12">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="63"/>
       <c r="C53" s="58"/>
       <c r="D53" s="58"/>
@@ -4514,7 +4426,7 @@
       <c r="K53" s="58"/>
       <c r="L53" s="64"/>
     </row>
-    <row r="54" spans="2:12">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="63"/>
       <c r="C54" s="58"/>
       <c r="D54" s="58"/>
@@ -4527,7 +4439,7 @@
       <c r="K54" s="58"/>
       <c r="L54" s="64"/>
     </row>
-    <row r="55" spans="2:12">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="63"/>
       <c r="C55" s="58"/>
       <c r="D55" s="58"/>
@@ -4540,7 +4452,7 @@
       <c r="K55" s="58"/>
       <c r="L55" s="64"/>
     </row>
-    <row r="56" spans="2:12">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="63"/>
       <c r="C56" s="58"/>
       <c r="D56" s="58"/>
@@ -4553,7 +4465,7 @@
       <c r="K56" s="58"/>
       <c r="L56" s="64"/>
     </row>
-    <row r="57" spans="2:12">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="63"/>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
@@ -4566,7 +4478,7 @@
       <c r="K57" s="58"/>
       <c r="L57" s="64"/>
     </row>
-    <row r="58" spans="2:12">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="63"/>
       <c r="C58" s="58"/>
       <c r="D58" s="58"/>
@@ -4579,7 +4491,7 @@
       <c r="K58" s="58"/>
       <c r="L58" s="64"/>
     </row>
-    <row r="59" spans="2:12">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="63"/>
       <c r="C59" s="58"/>
       <c r="D59" s="58">
@@ -4594,7 +4506,7 @@
       <c r="K59" s="58"/>
       <c r="L59" s="64"/>
     </row>
-    <row r="60" spans="2:12">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="63"/>
       <c r="C60" s="58"/>
       <c r="D60" s="58"/>
@@ -4607,7 +4519,7 @@
       <c r="K60" s="58"/>
       <c r="L60" s="64"/>
     </row>
-    <row r="61" spans="2:12">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="63"/>
       <c r="C61" s="58"/>
       <c r="D61" s="58"/>
@@ -4620,7 +4532,7 @@
       <c r="K61" s="58"/>
       <c r="L61" s="64"/>
     </row>
-    <row r="62" spans="2:12">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="63"/>
       <c r="C62" s="58"/>
       <c r="D62" s="58"/>
@@ -4633,7 +4545,7 @@
       <c r="K62" s="58"/>
       <c r="L62" s="64"/>
     </row>
-    <row r="63" spans="2:12">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="63"/>
       <c r="C63" s="58"/>
       <c r="D63" s="58"/>
@@ -4646,7 +4558,7 @@
       <c r="K63" s="58"/>
       <c r="L63" s="64"/>
     </row>
-    <row r="64" spans="2:12">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="63"/>
       <c r="C64" s="58"/>
       <c r="D64" s="58"/>
@@ -4659,7 +4571,7 @@
       <c r="K64" s="58"/>
       <c r="L64" s="64"/>
     </row>
-    <row r="65" spans="2:12">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="63"/>
       <c r="C65" s="58"/>
       <c r="D65" s="58"/>
@@ -4672,7 +4584,7 @@
       <c r="K65" s="58"/>
       <c r="L65" s="64"/>
     </row>
-    <row r="66" spans="2:12">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="63"/>
       <c r="C66" s="58" t="s">
         <v>24</v>
@@ -4687,7 +4599,7 @@
       <c r="K66" s="58"/>
       <c r="L66" s="64"/>
     </row>
-    <row r="67" spans="2:12">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="63"/>
       <c r="C67" s="58"/>
       <c r="D67" s="58"/>
@@ -4700,7 +4612,7 @@
       <c r="K67" s="58"/>
       <c r="L67" s="64"/>
     </row>
-    <row r="68" spans="2:12">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="63"/>
       <c r="C68" s="58"/>
       <c r="D68" s="58"/>
@@ -4713,7 +4625,7 @@
       <c r="K68" s="58"/>
       <c r="L68" s="64"/>
     </row>
-    <row r="69" spans="2:12">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="63"/>
       <c r="C69" s="58"/>
       <c r="D69" s="58"/>
@@ -4726,7 +4638,7 @@
       <c r="K69" s="58"/>
       <c r="L69" s="64"/>
     </row>
-    <row r="70" spans="2:12">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="63"/>
       <c r="C70" s="58"/>
       <c r="D70" s="58"/>
@@ -4739,7 +4651,7 @@
       <c r="K70" s="58"/>
       <c r="L70" s="64"/>
     </row>
-    <row r="71" spans="2:12">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="63"/>
       <c r="C71" s="58"/>
       <c r="D71" s="58"/>
@@ -4752,7 +4664,7 @@
       <c r="K71" s="58"/>
       <c r="L71" s="64"/>
     </row>
-    <row r="72" spans="2:12">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="63"/>
       <c r="C72" s="58"/>
       <c r="D72" s="58"/>
@@ -4765,7 +4677,7 @@
       <c r="K72" s="58"/>
       <c r="L72" s="64"/>
     </row>
-    <row r="73" spans="2:12">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="63"/>
       <c r="C73" s="58"/>
       <c r="D73" s="58"/>
@@ -4778,7 +4690,7 @@
       <c r="K73" s="58"/>
       <c r="L73" s="64"/>
     </row>
-    <row r="74" spans="2:12">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="63"/>
       <c r="C74" s="58"/>
       <c r="D74" s="58"/>
@@ -4791,7 +4703,7 @@
       <c r="K74" s="58"/>
       <c r="L74" s="64"/>
     </row>
-    <row r="75" spans="2:12">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="63"/>
       <c r="C75" s="58"/>
       <c r="D75" s="58"/>
@@ -4804,7 +4716,7 @@
       <c r="K75" s="58"/>
       <c r="L75" s="64"/>
     </row>
-    <row r="76" spans="2:12">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="63"/>
       <c r="C76" s="58"/>
       <c r="D76" s="58"/>
@@ -4817,7 +4729,7 @@
       <c r="K76" s="58"/>
       <c r="L76" s="64"/>
     </row>
-    <row r="77" spans="2:12">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="63"/>
       <c r="C77" s="58"/>
       <c r="D77" s="58"/>
@@ -4830,7 +4742,7 @@
       <c r="K77" s="58"/>
       <c r="L77" s="64"/>
     </row>
-    <row r="78" spans="2:12">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="63"/>
       <c r="C78" s="58"/>
       <c r="D78" s="58"/>
@@ -4843,14 +4755,14 @@
       <c r="K78" s="58"/>
       <c r="L78" s="64"/>
     </row>
-    <row r="79" spans="2:12">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="63"/>
       <c r="C79" s="58"/>
       <c r="D79" s="58">
         <v>24000</v>
       </c>
       <c r="E79" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" s="58"/>
       <c r="G79" s="58"/>
@@ -4860,7 +4772,7 @@
       <c r="K79" s="58"/>
       <c r="L79" s="64"/>
     </row>
-    <row r="80" spans="2:12">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="63"/>
       <c r="C80" s="58"/>
       <c r="D80" s="58"/>
@@ -4873,7 +4785,7 @@
       <c r="K80" s="58"/>
       <c r="L80" s="64"/>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="63"/>
       <c r="C81" s="58"/>
       <c r="D81" s="58"/>
@@ -4886,7 +4798,7 @@
       <c r="K81" s="58"/>
       <c r="L81" s="64"/>
     </row>
-    <row r="82" spans="2:12">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="63"/>
       <c r="C82" s="92" t="s">
         <v>25</v>
@@ -4901,10 +4813,10 @@
       <c r="K82" s="58"/>
       <c r="L82" s="64"/>
     </row>
-    <row r="83" spans="2:12">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="63"/>
       <c r="C83" s="92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -4916,7 +4828,7 @@
       <c r="K83" s="58"/>
       <c r="L83" s="64"/>
     </row>
-    <row r="84" spans="2:12">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="63"/>
       <c r="C84" s="58"/>
       <c r="D84" s="58"/>
@@ -4929,7 +4841,7 @@
       <c r="K84" s="58"/>
       <c r="L84" s="64"/>
     </row>
-    <row r="85" spans="2:12">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="63"/>
       <c r="C85" s="58"/>
       <c r="D85" s="58"/>
@@ -4942,7 +4854,7 @@
       <c r="K85" s="58"/>
       <c r="L85" s="64"/>
     </row>
-    <row r="86" spans="2:12">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="63"/>
       <c r="C86" s="58"/>
       <c r="D86" s="58"/>
@@ -4955,14 +4867,14 @@
       <c r="K86" s="58"/>
       <c r="L86" s="64"/>
     </row>
-    <row r="87" spans="2:12">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="63"/>
       <c r="C87" s="58"/>
       <c r="D87" s="58">
         <v>30000</v>
       </c>
       <c r="E87" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" s="58"/>
       <c r="G87" s="58"/>
@@ -4972,7 +4884,7 @@
       <c r="K87" s="58"/>
       <c r="L87" s="64"/>
     </row>
-    <row r="88" spans="2:12">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="63"/>
       <c r="C88" s="58"/>
       <c r="D88" s="58"/>
@@ -4985,7 +4897,7 @@
       <c r="K88" s="58"/>
       <c r="L88" s="64"/>
     </row>
-    <row r="89" spans="2:12">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="63"/>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
@@ -4998,7 +4910,7 @@
       <c r="K89" s="58"/>
       <c r="L89" s="64"/>
     </row>
-    <row r="90" spans="2:12">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="63"/>
       <c r="C90" s="58"/>
       <c r="D90" s="58"/>
@@ -5011,7 +4923,7 @@
       <c r="K90" s="58"/>
       <c r="L90" s="64"/>
     </row>
-    <row r="91" spans="2:12">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="63"/>
       <c r="C91" s="58"/>
       <c r="D91" s="58"/>
@@ -5024,7 +4936,7 @@
       <c r="K91" s="58"/>
       <c r="L91" s="64"/>
     </row>
-    <row r="92" spans="2:12">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="63"/>
       <c r="C92" s="58"/>
       <c r="D92" s="58"/>
@@ -5037,7 +4949,7 @@
       <c r="K92" s="58"/>
       <c r="L92" s="64"/>
     </row>
-    <row r="93" spans="2:12">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="63"/>
       <c r="C93" s="92" t="s">
         <v>62</v>
@@ -5052,10 +4964,10 @@
       <c r="K93" s="58"/>
       <c r="L93" s="64"/>
     </row>
-    <row r="94" spans="2:12">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="63"/>
       <c r="C94" s="92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
@@ -5067,7 +4979,7 @@
       <c r="K94" s="58"/>
       <c r="L94" s="64"/>
     </row>
-    <row r="95" spans="2:12">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="63"/>
       <c r="C95" s="58"/>
       <c r="D95" s="58"/>
@@ -5080,7 +4992,7 @@
       <c r="K95" s="58"/>
       <c r="L95" s="64"/>
     </row>
-    <row r="96" spans="2:12">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="63"/>
       <c r="C96" s="58"/>
       <c r="D96" s="58"/>
@@ -5093,7 +5005,7 @@
       <c r="K96" s="58"/>
       <c r="L96" s="64"/>
     </row>
-    <row r="97" spans="2:12">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="63"/>
       <c r="C97" s="58"/>
       <c r="D97" s="58"/>
@@ -5106,14 +5018,14 @@
       <c r="K97" s="58"/>
       <c r="L97" s="64"/>
     </row>
-    <row r="98" spans="2:12">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="63"/>
       <c r="C98" s="58"/>
       <c r="D98" s="58">
         <v>24000</v>
       </c>
       <c r="E98" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98" s="58"/>
       <c r="G98" s="58"/>
@@ -5123,7 +5035,7 @@
       <c r="K98" s="58"/>
       <c r="L98" s="64"/>
     </row>
-    <row r="99" spans="2:12">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="63"/>
       <c r="C99" s="58"/>
       <c r="D99" s="58"/>
@@ -5136,7 +5048,7 @@
       <c r="K99" s="58"/>
       <c r="L99" s="64"/>
     </row>
-    <row r="100" spans="2:12">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="63"/>
       <c r="C100" s="58"/>
       <c r="D100" s="58"/>
@@ -5149,7 +5061,7 @@
       <c r="K100" s="58"/>
       <c r="L100" s="64"/>
     </row>
-    <row r="101" spans="2:12">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="63"/>
       <c r="C101" s="58"/>
       <c r="D101" s="58"/>
@@ -5162,7 +5074,7 @@
       <c r="K101" s="58"/>
       <c r="L101" s="64"/>
     </row>
-    <row r="102" spans="2:12">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="63"/>
       <c r="C102" s="58"/>
       <c r="D102" s="58"/>
@@ -5175,7 +5087,7 @@
       <c r="K102" s="58"/>
       <c r="L102" s="64"/>
     </row>
-    <row r="103" spans="2:12">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="63"/>
       <c r="C103" s="58"/>
       <c r="D103" s="58"/>
@@ -5188,7 +5100,7 @@
       <c r="K103" s="58"/>
       <c r="L103" s="64"/>
     </row>
-    <row r="104" spans="2:12">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="63"/>
       <c r="C104" s="92" t="s">
         <v>41</v>
@@ -5203,7 +5115,7 @@
       <c r="K104" s="58"/>
       <c r="L104" s="64"/>
     </row>
-    <row r="105" spans="2:12">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="63"/>
       <c r="C105" s="58"/>
       <c r="D105" s="58"/>
@@ -5216,7 +5128,7 @@
       <c r="K105" s="58"/>
       <c r="L105" s="64"/>
     </row>
-    <row r="106" spans="2:12">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="63"/>
       <c r="C106" s="58"/>
       <c r="D106" s="58"/>
@@ -5229,7 +5141,7 @@
       <c r="K106" s="58"/>
       <c r="L106" s="64"/>
     </row>
-    <row r="107" spans="2:12">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="63"/>
       <c r="C107" s="58"/>
       <c r="D107" s="58"/>
@@ -5242,7 +5154,7 @@
       <c r="K107" s="58"/>
       <c r="L107" s="64"/>
     </row>
-    <row r="108" spans="2:12">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="63"/>
       <c r="C108" s="58"/>
       <c r="D108" s="58"/>
@@ -5255,7 +5167,7 @@
       <c r="K108" s="58"/>
       <c r="L108" s="64"/>
     </row>
-    <row r="109" spans="2:12">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="63"/>
       <c r="C109" s="58"/>
       <c r="D109" s="58"/>
@@ -5268,7 +5180,7 @@
       <c r="K109" s="58"/>
       <c r="L109" s="64"/>
     </row>
-    <row r="110" spans="2:12">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="63"/>
       <c r="C110" s="58"/>
       <c r="D110" s="58"/>
@@ -5281,7 +5193,7 @@
       <c r="K110" s="58"/>
       <c r="L110" s="64"/>
     </row>
-    <row r="111" spans="2:12">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="63"/>
       <c r="C111" s="58"/>
       <c r="D111" s="58"/>
@@ -5294,14 +5206,14 @@
       <c r="K111" s="58"/>
       <c r="L111" s="64"/>
     </row>
-    <row r="112" spans="2:12">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="63"/>
       <c r="C112" s="58"/>
       <c r="D112" s="58">
         <v>24000</v>
       </c>
       <c r="E112" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F112" s="58"/>
       <c r="G112" s="58"/>
@@ -5311,7 +5223,7 @@
       <c r="K112" s="58"/>
       <c r="L112" s="64"/>
     </row>
-    <row r="113" spans="2:12">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" s="63"/>
       <c r="C113" s="58"/>
       <c r="D113" s="58"/>
@@ -5324,7 +5236,7 @@
       <c r="K113" s="58"/>
       <c r="L113" s="64"/>
     </row>
-    <row r="114" spans="2:12">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="63"/>
       <c r="C114" s="58"/>
       <c r="D114" s="58"/>
@@ -5337,7 +5249,7 @@
       <c r="K114" s="58"/>
       <c r="L114" s="64"/>
     </row>
-    <row r="115" spans="2:12">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" s="63"/>
       <c r="C115" s="58"/>
       <c r="D115" s="58"/>
@@ -5350,7 +5262,7 @@
       <c r="K115" s="58"/>
       <c r="L115" s="64"/>
     </row>
-    <row r="116" spans="2:12">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" s="63"/>
       <c r="C116" s="92" t="s">
         <v>54</v>
@@ -5365,10 +5277,10 @@
       <c r="K116" s="58"/>
       <c r="L116" s="64"/>
     </row>
-    <row r="117" spans="2:12">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" s="63"/>
       <c r="C117" s="93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="58"/>
@@ -5380,14 +5292,14 @@
       <c r="K117" s="58"/>
       <c r="L117" s="64"/>
     </row>
-    <row r="118" spans="2:12">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" s="63"/>
       <c r="C118" s="58"/>
       <c r="D118" s="58">
         <v>15</v>
       </c>
       <c r="E118" s="93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F118" s="58"/>
       <c r="G118" s="58"/>
@@ -5397,7 +5309,7 @@
       <c r="K118" s="58"/>
       <c r="L118" s="64"/>
     </row>
-    <row r="119" spans="2:12">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" s="63"/>
       <c r="C119" s="58"/>
       <c r="D119" s="58"/>
@@ -5410,7 +5322,7 @@
       <c r="K119" s="58"/>
       <c r="L119" s="64"/>
     </row>
-    <row r="120" spans="2:12">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120" s="63"/>
       <c r="C120" s="58"/>
       <c r="D120" s="58"/>
@@ -5423,7 +5335,7 @@
       <c r="K120" s="58"/>
       <c r="L120" s="64"/>
     </row>
-    <row r="121" spans="2:12">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" s="63"/>
       <c r="C121" s="58"/>
       <c r="D121" s="58"/>
@@ -5436,14 +5348,14 @@
       <c r="K121" s="58"/>
       <c r="L121" s="64"/>
     </row>
-    <row r="122" spans="2:12">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122" s="63"/>
       <c r="C122" s="58"/>
       <c r="D122" s="58">
         <v>65</v>
       </c>
       <c r="E122" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F122" s="58"/>
       <c r="G122" s="58"/>
@@ -5453,14 +5365,14 @@
       <c r="K122" s="58"/>
       <c r="L122" s="64"/>
     </row>
-    <row r="123" spans="2:12">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123" s="63"/>
       <c r="C123" s="58"/>
       <c r="D123" s="58">
         <v>50.33</v>
       </c>
       <c r="E123" s="92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F123" s="58"/>
       <c r="G123" s="58"/>
@@ -5470,7 +5382,7 @@
       <c r="K123" s="58"/>
       <c r="L123" s="64"/>
     </row>
-    <row r="124" spans="2:12">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124" s="63"/>
       <c r="C124" s="58"/>
       <c r="D124" s="58"/>
@@ -5487,10 +5399,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>